--- a/biology/Biochimie/Équation_de_Michaelis-Menten/Équation_de_Michaelis-Menten.xlsx
+++ b/biology/Biochimie/Équation_de_Michaelis-Menten/Équation_de_Michaelis-Menten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Michaelis-Menten</t>
+          <t>Équation_de_Michaelis-Menten</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’équation de Michaelis-Menten (ou de Michaelis-Menten-Henri) permet de décrire la cinétique d'une réaction catalysée par une enzyme agissant sur un substrat unique pour donner irréversiblement un produit. Elle relie la vitesse stationnaire initiale de la réaction à la concentration initiale en substrat et à des paramètres caractéristiques de l'enzyme.  
 L'équation décrit un comportement cinétique très classique, observé avec de nombreuses enzymes, mais elle ne permet pas de rendre compte de certains comportements complexes, comme ceux résultant de l'existence de plusieurs sites actifs qui interagissent (voir l'article allostérie pour plus de détails), ni de comprendre les propriétés cinétiques d'enzymes qui catalysent une réaction faisant intervenir plusieurs substrats. L'équation n'est pas valable si la réaction est catalysée de façon réversible et que le produit de la réaction est présent (voir l'article Equation de Haldane pour plus de détails).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Michaelis-Menten</t>
+          <t>Équation_de_Michaelis-Menten</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Formule et représentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon le modèle de Michaelis et Menten, l'équation décrivant la vitesse initiale stationnaire d'une réaction enzymatique est la suivante :
           v
@@ -542,7 +556,7 @@
           ]
             0
     {\displaystyle [S]_{0}}
-. Comme toutes les vitesses de réactions chimiques, elle a la dimension d'une concentration par unité de temps (par exemple en µmol/L/min)[1] ;
+. Comme toutes les vitesses de réactions chimiques, elle a la dimension d'une concentration par unité de temps (par exemple en µmol/L/min) ;
           v
               m
               a
@@ -558,14 +572,14 @@
           v
             i
     {\displaystyle v_{i}}
- (par exemple en µmol/L/min)[1] ;
+ (par exemple en µmol/L/min) ;
 la vitesse initiale et la vitesse initiale maximale sont toutes les deux proportionnelles à la concentration en enzyme dans le milieu réactionnel ;
         [
         S
           ]
             0
     {\displaystyle [S]_{0}}
- : concentration initiale en substrat (en mol/L)[1] ;
+ : concentration initiale en substrat (en mol/L) ;
           K
             M
     {\displaystyle K_{M}}
@@ -638,7 +652,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Michaelis-Menten</t>
+          <t>Équation_de_Michaelis-Menten</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -656,7 +670,9 @@
           <t>Démonstration de l'équation de Michaelis-Menten</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les présentations modernes de cette équation, on part de l'hypothèse de mécanisme ci-dessous :
         E
@@ -1175,7 +1191,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Michaelis-Menten</t>
+          <t>Équation_de_Michaelis-Menten</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1193,7 +1209,9 @@
           <t>Interprétation de la constante de Michaelis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La constante de Michaelis 
           K
@@ -1204,7 +1222,7 @@
                 max
             2
     {\displaystyle {v_{\max } \over 2}}
- (en mol/L)[1]. Elle a la dimension d'une concentration (même unité que 
+ (en mol/L). Elle a la dimension d'une concentration (même unité que 
         [
         S
         ]
@@ -1398,7 +1416,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Michaelis-Menten</t>
+          <t>Équation_de_Michaelis-Menten</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1416,12 +1434,14 @@
           <t>Aspects historiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'équation est souvent attribuée à l'Allemand Leonor Michaelis et la Canadienne Maud Menten, mais elle avait été proposée sous une forme voisine par le Français Victor Henri dès 1902[2],[3],[4]. La contribution principale de Michaelis et Menten dans ce contexte est d'avoir proposé en 1913 de mesurer et interpréter des vitesses initiales de réaction[5],[6],[7].
-Par ailleurs, la démonstration basée sur l'hypothèse de l'état stationnaire et présentée sur cette page est due à Briggs et Haldane (1925)[8]. La démonstration originale de Michaelis et Menten en 1913 est en fait basée sur une hypothèse un peu différente, selon laquelle la réaction de formation du complexe enzyme/substrat est un équilibre très rapide (première ligne du tableau ci-dessous). 
-L'année suivante Van Slyke et Cullen obtiennent une équation identique à celle de Michaelis et Menten en faisant l'hypothèse contradictoire que la fixation du substrat est irréversible[9] (ligne 2 dans le tableau ci-dessous). (L'observation que des modèles contradictoires donnent la même équation de vitesse (l'équation dite de Michaelis et Menten) est importante: elle illustre que l'accord expérimental entre des données et une loi de vitesse ne permet pas de conclure que les hypothèses du modèle sont exactes.)
-La controverse se clôt lorsque Briggs et Haldane en 1925 montrent que les deux modèles sont les cas particuliers d'un modèle plus général[8], celui qui est décrit sur cette page et  dans la ligne 3 du tableau ci-dessous. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation est souvent attribuée à l'Allemand Leonor Michaelis et la Canadienne Maud Menten, mais elle avait été proposée sous une forme voisine par le Français Victor Henri dès 1902. La contribution principale de Michaelis et Menten dans ce contexte est d'avoir proposé en 1913 de mesurer et interpréter des vitesses initiales de réaction.
+Par ailleurs, la démonstration basée sur l'hypothèse de l'état stationnaire et présentée sur cette page est due à Briggs et Haldane (1925). La démonstration originale de Michaelis et Menten en 1913 est en fait basée sur une hypothèse un peu différente, selon laquelle la réaction de formation du complexe enzyme/substrat est un équilibre très rapide (première ligne du tableau ci-dessous). 
+L'année suivante Van Slyke et Cullen obtiennent une équation identique à celle de Michaelis et Menten en faisant l'hypothèse contradictoire que la fixation du substrat est irréversible (ligne 2 dans le tableau ci-dessous). (L'observation que des modèles contradictoires donnent la même équation de vitesse (l'équation dite de Michaelis et Menten) est importante: elle illustre que l'accord expérimental entre des données et une loi de vitesse ne permet pas de conclure que les hypothèses du modèle sont exactes.)
+La controverse se clôt lorsque Briggs et Haldane en 1925 montrent que les deux modèles sont les cas particuliers d'un modèle plus général, celui qui est décrit sur cette page et  dans la ligne 3 du tableau ci-dessous. 
 En fait, n'importe quel schéma cinétique qui enchaîne de façon séquentielle des réactions de fixation/dissociation des substrat et produit et des réactions du premier ordre donne une loi de vitesse de type Michaelis et Menten, mais la signification des paramètres 
           v
               m
@@ -1443,7 +1463,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Michaelis-Menten</t>
+          <t>Équation_de_Michaelis-Menten</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1461,7 +1481,9 @@
           <t>Détermination des constantes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs méthodes pour déterminer les paramètres de Michaelis-Menten d'une enzyme. Dans la pratique, on réalise une série de mesures de la vitesse initiale de la réaction pour différentes valeurs de la concentration de substrat [S]. Il est important de se placer dans des conditions de vitesse initiale (absence de produit P en quantité significative) pour respecter les hypothèses simplificatrices discutées ci-dessous.
 Historiquement, pour déterminer numériquement les paramètres 
@@ -1476,8 +1498,43 @@
     {\displaystyle v_{max}}
 , les enzymologistes ont eu recours à différentes formes de linéarisation de l'équation de Michaelis-Menten. Il s'agit de changements de variables qui transforment l'équation initiale en équation linéaire, qu'il est alors possible d'ajuster graphiquement ou par régression linéaire. Parmi ces linéarisations classiques, on peut citer la représentation de Lineweaver et Burk, celle de Eadie et Hofstee ou celle de Scatchard.
 Aujourd'hui, ces différentes techniques ont été remplacées par la régression non linéaire, plus précise et plus robuste.
-Représentation de Lineweaver-Burk
-Dans cette approche, on détermine les constantes de l'enzyme 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Équation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Détermination des constantes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Représentation de Lineweaver-Burk</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette approche, on détermine les constantes de l'enzyme 
           K
             M
     {\displaystyle K_{M}}
@@ -1589,8 +1646,43 @@
               e
     {\displaystyle K_{M}={pente \over ordonnee}}
 Cette représentation est une des moins précises quant à la détermination des caractéristiques de l'enzyme (Vmax, Km). En effet, les représentations de Lineweaver-Burk et Eadie-Hofstee ont une coordonnée en 1/[S]0, donc les mesures les plus précises seront concentrées dans la même région (voisines de l'axe vertical) et peu de mesures avec une erreur relativement grande existeront pour des faibles valeurs de concentration de substrat : le tracé à la règle de la "meilleure" droite sera entaché d'erreur.
-Représentation de Hanes-Woolf
-La représentation de Hanes-Woolf est considérée moins susceptible à la propagation statistique des erreurs de mesure que la représentation de Lineweaver-Burk.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Équation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Détermination des constantes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Représentation de Hanes-Woolf</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La représentation de Hanes-Woolf est considérée moins susceptible à la propagation statistique des erreurs de mesure que la représentation de Lineweaver-Burk.
 La droite est d'équation :
               [
               S
@@ -1644,8 +1736,43 @@
                 a
                 x
     {\displaystyle {K_{M} \over v_{max}}}
-Représentation de Eadie-Hofstee
-Le diagramme de Eadie et Hofstee indique la vitesse de réaction 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Équation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Détermination des constantes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Représentation de Eadie-Hofstee</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagramme de Eadie et Hofstee indique la vitesse de réaction 
           v
             i
     {\displaystyle v_{i}}
@@ -1781,8 +1908,43 @@
             M
     {\displaystyle -K_{M}}
  comme pente.
-Représentation de Eisenthal et Cornish-Bowden
-L'équation de la droite est :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Équation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quation_de_Michaelis-Menten</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Détermination des constantes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Représentation de Eisenthal et Cornish-Bowden</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation de la droite est :
           v
             m
             a
